--- a/doc/任务系统.xlsx
+++ b/doc/任务系统.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24180" windowHeight="13065"/>
+    <workbookView windowWidth="27360" windowHeight="10890"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48">
   <si>
     <t>每日任务</t>
   </si>
@@ -36,13 +36,13 @@
     <t>每个任务的类型不一样：如击杀X个怪物、击杀X个小精灵、充值X元、挑战竞技场X次.....</t>
   </si>
   <si>
-    <t>每一批次的成就任务都有若干个子任务</t>
+    <t>完成一个子任务，领取奖励后开启下一个等级的同类型子任务</t>
   </si>
   <si>
     <t>每日任务更新时间为每天0点</t>
   </si>
   <si>
-    <t>完成每个子任务会获得子任务奖励</t>
+    <t>完成每个子任务会获得子任务奖励以及完成度值</t>
   </si>
   <si>
     <t>每日任务自动领取任务</t>
@@ -54,19 +54,19 @@
     <t xml:space="preserve">完成每个每日任务，可领取该任务的奖励，并得到活跃度 </t>
   </si>
   <si>
-    <t>完成这一批次的子任务会得到这批的成就任务总奖励，并开启下一批次成就任务</t>
+    <t>完成度值达到100点的时候，可以领取成就奖励，需玩家手动领取</t>
   </si>
   <si>
     <t>每日活跃度达到一定数值，可领取活跃度奖励</t>
   </si>
   <si>
-    <t>任务类型部分和每日任务一样</t>
+    <t>任务类型部分和每日任务基本一样</t>
   </si>
   <si>
     <t>每日任务只统计当日任务完成情况，并且需要手动领取奖励。过点重置（包括奖励）</t>
   </si>
   <si>
-    <t>任务为完成时，显示按钮、置灰；完成后正常状态；领取完后显示“clean”标识，按钮隐藏</t>
+    <t>任务为领取时，显示按钮、置灰；完成后正常状态；领取完后显示“clean”标识，按钮隐藏</t>
   </si>
   <si>
     <t>逻辑</t>
@@ -75,7 +75,7 @@
     <t>每日0点重置所有任务</t>
   </si>
   <si>
-    <t>成就任务每天不重置，是按照批次重置</t>
+    <t>成就任务每天不重置，是按照任务完成后升级至下一个任务</t>
   </si>
   <si>
     <t>每次升级判断是否有新的任务</t>
@@ -139,6 +139,27 @@
   </si>
   <si>
     <t>累计消费/充值钻石</t>
+  </si>
+  <si>
+    <t>任务id</t>
+  </si>
+  <si>
+    <t>活动类型</t>
+  </si>
+  <si>
+    <t>任务类型</t>
+  </si>
+  <si>
+    <t>开启等级</t>
+  </si>
+  <si>
+    <t>参数</t>
+  </si>
+  <si>
+    <t>奖励</t>
+  </si>
+  <si>
+    <t>活跃度</t>
   </si>
 </sst>
 </file>
@@ -146,10 +167,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -167,44 +188,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,7 +241,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,24 +270,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -266,45 +295,37 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -319,6 +340,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -331,97 +370,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -433,73 +514,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -513,17 +534,50 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -543,59 +597,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -610,6 +622,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -618,10 +639,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -630,133 +651,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1116,10 +1137,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="D6:H40"/>
+  <dimension ref="A5:H56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
@@ -1132,6 +1153,14 @@
     <col min="16381" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1">
+        <v>4</v>
+      </c>
+    </row>
     <row r="6" spans="4:7">
       <c r="D6" s="1" t="s">
         <v>0</v>
@@ -1473,6 +1502,145 @@
       </c>
       <c r="H40" s="1" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8">
+      <c r="B45" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8">
+      <c r="B46" s="1">
+        <v>1001</v>
+      </c>
+      <c r="C46" s="1">
+        <v>1</v>
+      </c>
+      <c r="D46" s="1">
+        <v>1</v>
+      </c>
+      <c r="E46" s="1">
+        <v>10</v>
+      </c>
+      <c r="F46" s="1">
+        <v>100</v>
+      </c>
+      <c r="H46" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6">
+      <c r="B47" s="1">
+        <v>2001</v>
+      </c>
+      <c r="C47" s="1">
+        <v>2</v>
+      </c>
+      <c r="D47" s="1">
+        <v>1</v>
+      </c>
+      <c r="E47" s="1">
+        <v>1</v>
+      </c>
+      <c r="F47" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="5:6">
+      <c r="E48" s="1">
+        <v>2</v>
+      </c>
+      <c r="F48" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="5:6">
+      <c r="E49" s="1">
+        <v>3</v>
+      </c>
+      <c r="F49" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50" spans="5:6">
+      <c r="E50" s="1">
+        <v>4</v>
+      </c>
+      <c r="F50" s="1">
+        <f>E50*10</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51" spans="5:6">
+      <c r="E51" s="1">
+        <v>5</v>
+      </c>
+      <c r="F51" s="1">
+        <f t="shared" ref="F51:F56" si="0">E51*10</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="5:6">
+      <c r="E52" s="1">
+        <v>6</v>
+      </c>
+      <c r="F52" s="1">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="53" spans="5:6">
+      <c r="E53" s="1">
+        <v>7</v>
+      </c>
+      <c r="F53" s="1">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="54" spans="5:6">
+      <c r="E54" s="1">
+        <v>8</v>
+      </c>
+      <c r="F54" s="1">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="55" spans="5:6">
+      <c r="E55" s="1">
+        <v>9</v>
+      </c>
+      <c r="F55" s="1">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="56" spans="5:6">
+      <c r="E56" s="1">
+        <v>10</v>
+      </c>
+      <c r="F56" s="1">
+        <f t="shared" si="0"/>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/doc/任务系统.xlsx
+++ b/doc/任务系统.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27360" windowHeight="10890"/>
+    <workbookView windowWidth="19770" windowHeight="9555"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62">
   <si>
     <t>每日任务</t>
   </si>
@@ -102,43 +102,85 @@
     <t>击杀普通怪物数量</t>
   </si>
   <si>
+    <t xml:space="preserve">    total_enemy_kill</t>
+  </si>
+  <si>
     <t>击杀小精灵数量</t>
   </si>
   <si>
     <t>击杀Boss怪物数量</t>
   </si>
   <si>
+    <t xml:space="preserve">    total_boss_kill</t>
+  </si>
+  <si>
     <t>升级英雄次数</t>
   </si>
   <si>
+    <t xml:space="preserve">    total_fairy</t>
+  </si>
+  <si>
     <t>升级技能次数</t>
   </si>
   <si>
+    <t xml:space="preserve">    total_hero_upgrade</t>
+  </si>
+  <si>
     <t>升级装备次数</t>
   </si>
   <si>
+    <t xml:space="preserve">    total_skill_upgrade</t>
+  </si>
+  <si>
     <t>竞技场挑战次数</t>
   </si>
   <si>
+    <t xml:space="preserve">    total_equip_upgrade</t>
+  </si>
+  <si>
     <t>参加在线副本</t>
   </si>
   <si>
     <t>获得神器个数</t>
   </si>
   <si>
+    <t xml:space="preserve">    /*神器*/total_artifact_upgrade</t>
+  </si>
+  <si>
     <t>摇钱树点金次数</t>
   </si>
   <si>
     <t>竞技场挑战</t>
   </si>
   <si>
+    <t xml:space="preserve">    total_arena_challenge</t>
+  </si>
+  <si>
     <t>参加在线副本（需先完成该系统）</t>
   </si>
   <si>
+    <t xml:space="preserve">    /*副本*/total_dungeon</t>
+  </si>
+  <si>
     <t>抽卡次数（需先完成该系统）</t>
   </si>
   <si>
-    <t>累计消费/充值钻石</t>
+    <t>total_gachabox</t>
+  </si>
+  <si>
+    <t>累计消费钻石</t>
+  </si>
+  <si>
+    <t>accumulate_gem_consume</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    total_moneytree</t>
+  </si>
+  <si>
+    <t>累计充值钻石</t>
+  </si>
+  <si>
+    <t>accumulate_gem_recharge</t>
   </si>
   <si>
     <t>任务id</t>
@@ -167,9 +209,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -187,6 +229,21 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -195,7 +252,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,6 +288,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -217,13 +343,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -232,54 +351,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -292,44 +372,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -340,25 +382,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -370,157 +562,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -531,54 +573,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -614,11 +608,48 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -631,6 +662,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -639,10 +681,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -651,133 +693,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1137,19 +1179,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A5:H56"/>
+  <dimension ref="A5:I56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" topLeftCell="F23" workbookViewId="0">
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="4" width="9" style="1"/>
     <col min="5" max="5" width="79.25" style="1" customWidth="1"/>
     <col min="6" max="7" width="9" style="1"/>
     <col min="8" max="8" width="84.5" style="2" customWidth="1"/>
-    <col min="9" max="16380" width="9" style="1"/>
+    <col min="9" max="9" width="32.75" style="1" customWidth="1"/>
+    <col min="10" max="16380" width="9" style="1"/>
     <col min="16381" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1360,7 +1403,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="4:8">
+    <row r="29" spans="4:9">
       <c r="D29" s="1">
         <v>1</v>
       </c>
@@ -1373,158 +1416,205 @@
       <c r="H29" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="30" spans="4:8">
+      <c r="I29" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="4:9">
       <c r="D30" s="1">
         <v>2</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G30" s="1">
         <v>2</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="4:8">
+        <v>30</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="4:9">
       <c r="D31" s="1">
         <v>3</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G31" s="1">
         <v>3</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="32" spans="4:8">
+        <v>29</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="4:9">
       <c r="D32" s="1">
         <v>4</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G32" s="1">
         <v>4</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="4:8">
+        <v>32</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="4:9">
       <c r="D33" s="1">
         <v>5</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G33" s="1">
         <v>5</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="4:8">
+        <v>34</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="4:9">
       <c r="D34" s="1">
         <v>6</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G34" s="1">
         <v>6</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="4:8">
+        <v>36</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="4:9">
       <c r="D35" s="1">
         <v>7</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G35" s="1">
         <v>7</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="36" spans="4:8">
+        <v>41</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="4:9">
       <c r="D36" s="1">
         <v>8</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G36" s="1">
         <v>8</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="37" spans="7:8">
+        <v>44</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="7:9">
       <c r="G37" s="1">
         <v>9</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="38" spans="7:8">
+        <v>46</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="7:9">
       <c r="G38" s="1">
         <v>10</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="39" spans="7:8">
+        <v>48</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39" spans="7:9">
       <c r="G39" s="1">
         <v>11</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="40" spans="7:8">
+        <v>50</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" spans="7:9">
       <c r="G40" s="1">
         <v>12</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>36</v>
+        <v>43</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="41" spans="7:9">
+      <c r="G41" s="1">
+        <v>13</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="45" spans="2:8">
       <c r="B45" s="1" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
     </row>
     <row r="46" spans="2:8">

--- a/doc/任务系统.xlsx
+++ b/doc/任务系统.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19770" windowHeight="9555"/>
+    <workbookView windowWidth="28080" windowHeight="14235"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -211,8 +211,8 @@
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -229,6 +229,72 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -237,38 +303,58 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -280,94 +366,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -382,187 +382,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -573,6 +573,41 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -587,39 +622,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -639,17 +641,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -657,19 +653,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -681,10 +681,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -693,16 +693,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -714,13 +714,10 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -732,94 +729,97 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1182,7 +1182,7 @@
   <dimension ref="A5:I56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F23" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+      <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1190,7 +1190,7 @@
     <col min="1" max="4" width="9" style="1"/>
     <col min="5" max="5" width="79.25" style="1" customWidth="1"/>
     <col min="6" max="7" width="9" style="1"/>
-    <col min="8" max="8" width="84.5" style="2" customWidth="1"/>
+    <col min="8" max="8" width="32.5" style="2" customWidth="1"/>
     <col min="9" max="9" width="32.75" style="1" customWidth="1"/>
     <col min="10" max="16380" width="9" style="1"/>
     <col min="16381" max="16384" width="9" style="2"/>
